--- a/GameAssets/Tables/develop/Item.xlsx
+++ b/GameAssets/Tables/develop/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="道具&amp;Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>主键</t>
   </si>
@@ -51,58 +51,157 @@
     <t>20000</t>
   </si>
   <si>
+    <t>Apple</t>
+  </si>
+  <si>
     <t>20001</t>
   </si>
   <si>
+    <t>Banana</t>
+  </si>
+  <si>
     <t>20002</t>
   </si>
   <si>
+    <t>Cherry</t>
+  </si>
+  <si>
     <t>20003</t>
   </si>
   <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
     <t>20004</t>
   </si>
   <si>
+    <t>Melon</t>
+  </si>
+  <si>
     <t>20005</t>
   </si>
   <si>
+    <t>Orange</t>
+  </si>
+  <si>
     <t>20006</t>
   </si>
   <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
     <t>20007</t>
   </si>
   <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
     <t>20008</t>
   </si>
   <si>
+    <t>DesertEagle</t>
+  </si>
+  <si>
     <t>20009</t>
   </si>
   <si>
+    <t>FlyingEye</t>
+  </si>
+  <si>
     <t>20010</t>
   </si>
   <si>
+    <t>Goblin</t>
+  </si>
+  <si>
     <t>20011</t>
   </si>
   <si>
+    <t>LaserPistol</t>
+  </si>
+  <si>
     <t>20012</t>
   </si>
   <si>
+    <t>LaserRifle</t>
+  </si>
+  <si>
     <t>20013</t>
   </si>
   <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
     <t>20014</t>
   </si>
   <si>
+    <t>Pistol</t>
+  </si>
+  <si>
     <t>20015</t>
   </si>
   <si>
+    <t>Player</t>
+  </si>
+  <si>
     <t>20016</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>20017</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>20018</t>
+  </si>
+  <si>
+    <t>RocketLauncher</t>
+  </si>
+  <si>
+    <t>20019</t>
+  </si>
+  <si>
+    <t>ShotGun</t>
+  </si>
+  <si>
+    <t>20020</t>
+  </si>
+  <si>
+    <t>SkeletonBroadsword</t>
+  </si>
+  <si>
+    <t>20021</t>
+  </si>
+  <si>
+    <t>skeletonShield</t>
+  </si>
+  <si>
+    <t>20022</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>Snipe</t>
+  </si>
+  <si>
+    <t>20024</t>
+  </si>
+  <si>
+    <t>SubmachienGun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -118,6 +217,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -131,6 +258,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,14 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +318,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +326,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,57 +341,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,13 +370,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,24 +436,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,18 +484,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,36 +496,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,24 +520,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,12 +539,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +561,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,21 +608,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,207 +666,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1030,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1083,89 +1185,287 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Item.xlsx
+++ b/GameAssets/Tables/develop/Item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>主键</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Apple</t>
@@ -1135,7 +1138,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1189,9 +1192,11 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1199,11 +1204,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1211,11 +1218,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1223,11 +1232,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1235,11 +1246,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -1247,11 +1260,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -1259,11 +1274,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -1271,11 +1288,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -1283,10 +1302,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -1294,10 +1316,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -1305,10 +1330,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1316,10 +1344,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -1327,10 +1358,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1338,10 +1372,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1349,10 +1386,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1360,10 +1400,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -1371,10 +1414,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1382,10 +1428,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1393,10 +1442,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1404,10 +1456,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -1415,10 +1470,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -1426,10 +1484,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -1437,10 +1498,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
@@ -1448,10 +1512,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -1459,10 +1526,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>

--- a/GameAssets/Tables/develop/Item.xlsx
+++ b/GameAssets/Tables/develop/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="道具&amp;Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>主键</t>
   </si>
@@ -199,12 +199,48 @@
   </si>
   <si>
     <t>SubmachienGun</t>
+  </si>
+  <si>
+    <t>20025</t>
+  </si>
+  <si>
+    <t>BlackKid</t>
+  </si>
+  <si>
+    <t>20026</t>
+  </si>
+  <si>
+    <t>YellowKid</t>
+  </si>
+  <si>
+    <t>20027</t>
+  </si>
+  <si>
+    <t>BlueKid</t>
+  </si>
+  <si>
+    <t>20028</t>
+  </si>
+  <si>
+    <t>PurpleKid</t>
+  </si>
+  <si>
+    <t>20029</t>
+  </si>
+  <si>
+    <t>BrightRedKid</t>
+  </si>
+  <si>
+    <t>20030</t>
+  </si>
+  <si>
+    <t>GreenKid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -220,34 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -264,6 +272,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -273,41 +320,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,7 +373,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,49 +409,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,121 +547,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,21 +600,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,6 +632,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,148 +705,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,52 +863,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1135,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1535,6 +1571,90 @@
         <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
